--- a/Analytics/Analytics_Data.xlsx
+++ b/Analytics/Analytics_Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ElAamrani_Ahmed\Documents\Projects\ALS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ElAamrani_Ahmed\Documents\Projects\ALS\Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Send date</t>
   </si>
@@ -78,44 +78,15 @@
   </si>
   <si>
     <t>Grand Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Questions:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. The gift/clicks ratio went from 2.95% in "only you" to 7.62% in "before midnight". Hence the percentage increase x is such as 2.95(1+x)=7.62 which means x=1.58=158% </t>
-  </si>
-  <si>
-    <t>2. In the email "before midnight", if the gift/open ratio held steady, in order to reach 300 gifts, we should have x opens such as 224/66396=300/x. Hence, x = 88924</t>
-  </si>
-  <si>
-    <t>3. The email performance is directly indicated by money raised. The number of gifts (and subsequently gifts/sent, gifts/opens, gifts/clicks, average gift) are less relevant as they can be influenced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    by the email's rhetoric. If we consider the remaining metrics (Total Raised, Open Rate, Clicks/Sent, Clicks/Opens), the "Only You" email is the most performant, then "before midnight" then "got a sec"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. The "one more minute" message have seen both "Total Raised" and "Average Gift" decline. Hence, the client should be concerned by the drop in average gift and has to review the rhetoric </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    because if the goal was to have more smaller gifts, the company didn't achieve the same total amount as in the "this is crazy" message</t>
-  </si>
-  <si>
-    <t>5. The response rate for the "one more minute" is (0.12/0.08-1)=50% higher than the "can't stop hitting refresh" message. If we assume that a much better rate means at least 30% increase,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    then "one more minute" rate is much better than the "can't stop hitting refresh" one.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="0.00000000000000%"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -163,32 +134,14 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -472,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -583,11 +536,11 @@
         <v>1.6433722637054055E-3</v>
       </c>
       <c r="M2" s="4">
-        <f>F2/E2</f>
+        <f t="shared" ref="M2:N5" si="0">F2/E2</f>
         <v>2.9546758462421115E-2</v>
       </c>
       <c r="N2" s="3">
-        <f>G2/F2</f>
+        <f t="shared" si="0"/>
         <v>30.961165048543688</v>
       </c>
     </row>
@@ -634,11 +587,11 @@
         <v>3.3736972106753419E-3</v>
       </c>
       <c r="M3" s="4">
-        <f>F3/E3</f>
+        <f t="shared" si="0"/>
         <v>7.6164569874192456E-2</v>
       </c>
       <c r="N3" s="3">
-        <f>G3/F3</f>
+        <f t="shared" si="0"/>
         <v>6.5982142857142856</v>
       </c>
     </row>
@@ -685,11 +638,11 @@
         <v>1.1033925435529239E-3</v>
       </c>
       <c r="M4" s="4">
-        <f>F4/E4</f>
+        <f t="shared" si="0"/>
         <v>3.1017911751856708E-2</v>
       </c>
       <c r="N4" s="3">
-        <f>G4/F4</f>
+        <f t="shared" si="0"/>
         <v>18.070422535211268</v>
       </c>
     </row>
@@ -739,251 +692,17 @@
         <v>2.0577089117408322E-3</v>
       </c>
       <c r="M5" s="4">
-        <f>F5/E5</f>
+        <f t="shared" si="0"/>
         <v>4.5663148233134464E-2</v>
       </c>
       <c r="N5" s="3">
-        <f>G5/F5</f>
+        <f t="shared" si="0"/>
         <v>14.949748743718592</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A18:N18"/>
-    <mergeCell ref="A19:N19"/>
+  <mergeCells count="1">
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A10:N10"/>
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="A12:N12"/>
-    <mergeCell ref="A13:N13"/>
-    <mergeCell ref="A15:N15"/>
-    <mergeCell ref="A16:N16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
